--- a/output/_example.json/stateful_config.result.xlsx
+++ b/output/_example.json/stateful_config.result.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -413,14 +425,2041 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="17"/>
+    <col customWidth="1" max="2" min="2" width="11"/>
+    <col customWidth="1" max="3" min="3" width="12"/>
+    <col customWidth="1" max="4" min="4" width="10"/>
+    <col customWidth="1" max="5" min="5" width="10"/>
+    <col customWidth="1" max="6" min="6" width="7"/>
+    <col customWidth="1" max="7" min="7" width="19"/>
+    <col customWidth="1" max="8" min="8" width="283"/>
+    <col customWidth="1" max="9" min="9" width="6"/>
+    <col customWidth="1" max="10" min="10" width="8"/>
+    <col customWidth="1" max="11" min="11" width="8"/>
+    <col customWidth="1" max="12" min="12" width="9"/>
+    <col customWidth="1" max="13" min="13" width="10"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="15" r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>FileKey</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Field</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Merge</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>TopIndex</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>TopTotal</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Content</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Author</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Context</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Examples</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>stateful_config</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TIMESTAMP</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>TIME-3600</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
+        <v>195</v>
+      </c>
+      <c r="G2" t="n">
+        <v>98.98477157360406</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>{'start': '2024-11-30 18:00:00.000000', 'end': '2024-11-30 19:00:00.000000'}</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>stateful_config</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TIMESTAMP</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>TIME-3600</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.015228426395939</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>{'start': '1970-01-01 00:00:00.000000', 'end': '1970-01-01 01:00:00.000000'}</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>stateful_config</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LEVEL</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>103</v>
+      </c>
+      <c r="G4" t="n">
+        <v>52.28426395939086</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>stateful_config</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>LEVEL</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>85</v>
+      </c>
+      <c r="G5" t="n">
+        <v>43.14720812182741</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>stateful_config</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>LEVEL</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.553299492385787</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>warning</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>stateful_config</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>LEVEL</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.015228426395939</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>stateful_config</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MODULE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>49</v>
+      </c>
+      <c r="G8" t="n">
+        <v>24.87309644670051</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>ConfigServerHandler</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>stateful_config</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MODULE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>42</v>
+      </c>
+      <c r="G9" t="n">
+        <v>21.31979695431472</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>StreamDispatcher</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>stateful_config</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MODULE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>14</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7.106598984771574</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>stateful_config</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MODULE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>13</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6.598984771573605</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Config-TeamService</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>stateful_config</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MODULE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>13</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6.598984771573605</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Config-RoomService</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>stateful_config</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MODULE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>13</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6.598984771573605</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Config-MatchService</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>stateful_config</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MODULE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>7</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>9</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4.568527918781726</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>stateful_config</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MODULE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>8</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>9</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4.568527918781726</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>ConfigPersistent</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>stateful_config</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MODULE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>9</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>6</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3.045685279187818</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>MsFramework</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>stateful_config</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>MODULE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>10</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>6</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3.045685279187818</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>TcpConnection</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>stateful_config</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CALLER</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F18" t="n">
+        <v>45</v>
+      </c>
+      <c r="G18" t="n">
+        <v>22.84263959390863</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>stateful_config_server.go:86</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>stateful_config</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CALLER</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" t="n">
+        <v>42</v>
+      </c>
+      <c r="G19" t="n">
+        <v>21.31979695431472</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>stateful_stream_dispatcher.go:69</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>stateful_config</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CALLER</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>6</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.045685279187818</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>server.go:316</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>stateful_config</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CALLER</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>4</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.030456852791878</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>etcd_listener.go:43</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>stateful_config</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CALLER</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.522842639593909</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>service_channel.go:102</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>stateful_config</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CALLER</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>6</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.522842639593909</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>stateful_config_etcd.go:251</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>stateful_config</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CALLER</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>7</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.522842639593909</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>stateful_config_server.go:68</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>stateful_config</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CALLER</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>8</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.522842639593909</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>stateful_config_persistent.go:111</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>stateful_config</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CALLER</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>9</v>
+      </c>
+      <c r="E26" t="n">
+        <v>10</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.522842639593909</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>server.go:230</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>stateful_config</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CALLER</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>10</v>
+      </c>
+      <c r="E27" t="n">
+        <v>10</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.522842639593909</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>server.go:238</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>stateful_config</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>MESSAGE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>K_MEANS-30</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>10</v>
+      </c>
+      <c r="F28" t="n">
+        <v>42</v>
+      </c>
+      <c r="G28" t="n">
+        <v>21.31979695431472</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>['OnMessage from 8043077-game0, to StatefulConfigService0, message {10 {8043077-game0 1 1}}']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>stateful_config</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>MESSAGE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>K_MEANS-30</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>10</v>
+      </c>
+      <c r="F29" t="n">
+        <v>39</v>
+      </c>
+      <c r="G29" t="n">
+        <v>19.79695431472081</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>['Send peer {StatefulConfigService0 8043077-game0} message 9 OK']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>stateful_config</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>MESSAGE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>K_MEANS-30</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" t="n">
+        <v>10</v>
+      </c>
+      <c r="F30" t="n">
+        <v>12</v>
+      </c>
+      <c r="G30" t="n">
+        <v>6.091370558375635</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>['ReadLoop start, remote addr 10.8.43.77:23001']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>stateful_config</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MESSAGE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>K_MEANS-30</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>4</v>
+      </c>
+      <c r="E31" t="n">
+        <v>10</v>
+      </c>
+      <c r="F31" t="n">
+        <v>11</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5.583756345177665</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>['init mongodb ok, poolsize 8, wc-majority true']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>stateful_config</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>MESSAGE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>K_MEANS-30</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>5</v>
+      </c>
+      <c r="E32" t="n">
+        <v>10</v>
+      </c>
+      <c r="F32" t="n">
+        <v>7</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3.553299492385787</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>['OnAddProcessInfo, Namespace = 8043077, ProcessType = RoomService, Pid = 674ae81125c8410103993c91, Ip = 8043077-game0, Port = 0']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>stateful_config</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>MESSAGE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>K_MEANS-30</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>6</v>
+      </c>
+      <c r="E33" t="n">
+        <v>10</v>
+      </c>
+      <c r="F33" t="n">
+        <v>6</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3.045685279187818</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>['StatefulConfigService0 save stable for version 1']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>stateful_config</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>MESSAGE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>K_MEANS-30</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>7</v>
+      </c>
+      <c r="E34" t="n">
+        <v>10</v>
+      </c>
+      <c r="F34" t="n">
+        <v>6</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3.045685279187818</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>['StatefulConfigService0 get stableVersion save done for version 1']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>stateful_config</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>MESSAGE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>K_MEANS-30</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>8</v>
+      </c>
+      <c r="E35" t="n">
+        <v>10</v>
+      </c>
+      <c r="F35" t="n">
+        <v>6</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3.045685279187818</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>['StatefulConfigService0 get configSyncAck from shard 8043077-game0, version is 1, stable version is 1']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>stateful_config</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>MESSAGE</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>K_MEANS-30</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>9</v>
+      </c>
+      <c r="E36" t="n">
+        <v>10</v>
+      </c>
+      <c r="F36" t="n">
+        <v>6</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3.045685279187818</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>['StatefulConfigService0 change state from saveStable to stable']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>stateful_config</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>MESSAGE</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>K_MEANS-30</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>10</v>
+      </c>
+      <c r="E37" t="n">
+        <v>10</v>
+      </c>
+      <c r="F37" t="n">
+        <v>4</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.030456852791878</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>['onStatefulMsg from:"gate0" to:"StatefulConfigService0" service:"RoomService" params:"\\202\\242Op\\322\\000\\000\\000\\023\\244Data\\304\\035\\202\\247Version\\317\\000\\000\\000\\000\\000\\000\\000\\000\\244Name\\245gate0"  handler err: ConfigServer for RoomService not exists']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>